--- a/common_presentation_materials/OCEAN_description_table.xlsx
+++ b/common_presentation_materials/OCEAN_description_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/common_materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/common_presentation_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{B21641CE-2D67-4115-8C51-08455188AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F2D642-11D8-46BF-BB1C-50A4062BDE97}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{B21641CE-2D67-4115-8C51-08455188AE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F0E062-6B8A-45DA-BC7D-13D76F94AB4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{940A2067-F065-4450-8F6B-50865DC349C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Trait</t>
   </si>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>(N)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Disorganized, careless, spontaneous, and less focused on goals or details.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -204,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,23 +239,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -340,23 +359,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B63C83-BE1A-B50B-EF24-DA2D8B122EFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748AC4D4-635C-A878-F8DA-C8622834E1C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -379,8 +398,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="615950" y="304800"/>
-          <a:ext cx="7918450" cy="2406650"/>
+          <a:off x="673100" y="336550"/>
+          <a:ext cx="8261350" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,6 +419,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,132 +836,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E6B5D-4A76-4659-A640-0972D9C49FB4}">
-  <dimension ref="C1:F13"/>
+  <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="B2:G13"/>
+      <selection activeCell="H2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="0.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.08203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="39.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="0.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="0.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="24.5" customHeight="1"/>
-    <row r="2" spans="3:6" ht="3.5" customHeight="1"/>
-    <row r="3" spans="3:6" ht="23.5" customHeight="1">
-      <c r="C3" s="14" t="s">
+    <row r="1" spans="3:7" ht="24.5" customHeight="1"/>
+    <row r="2" spans="3:7" ht="3.5" customHeight="1"/>
+    <row r="3" spans="3:7" ht="23.5" customHeight="1">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="28">
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="3:7" ht="28">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="4.5" customHeight="1">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="3:6" ht="28">
-      <c r="C6" s="10" t="s">
+    <row r="5" spans="3:7" ht="4.5" customHeight="1">
+      <c r="C5" s="19"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="3:7" ht="28">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="4.5" customHeight="1">
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="3:6" ht="28">
-      <c r="C8" s="10" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="4.5" customHeight="1">
+      <c r="C7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="4.5" customHeight="1">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="3:6" ht="28">
-      <c r="C10" s="10" t="s">
+    <row r="9" spans="3:7" ht="4.5" customHeight="1">
+      <c r="C9" s="19"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="3:7" ht="28">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="4.5" customHeight="1">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="3:6" ht="28">
-      <c r="C12" s="5" t="s">
+    <row r="11" spans="3:7" ht="4.5" customHeight="1">
+      <c r="C11" s="19"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="3:7" ht="28">
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="4" customHeight="1"/>
+    <row r="13" spans="3:7" ht="4" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:D3"/>
@@ -970,7 +1005,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
